--- a/src/test/resources/externalTestData/QA_WalletHub_TestData.xlsx
+++ b/src/test/resources/externalTestData/QA_WalletHub_TestData.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Wallethub\WalletHubSeleniumFramework\src\test\resources\externalTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55DF8020-B77B-453D-BA51-1FC3C388ECC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD588666-7A82-44EC-BEC2-33286F19BADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginTestData" sheetId="1" r:id="rId1"/>
     <sheet name="postStatus" sheetId="2" r:id="rId2"/>
+    <sheet name="walletHubPostReviews" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="36">
   <si>
     <t>Portal</t>
   </si>
@@ -95,6 +96,45 @@
   </si>
   <si>
     <t>Profile Name</t>
+  </si>
+  <si>
+    <t>Wallethub</t>
+  </si>
+  <si>
+    <t>This method will validate if the wallethub customer is able to post reviews</t>
+  </si>
+  <si>
+    <t>validate_Posting_Reviews_Functionality</t>
+  </si>
+  <si>
+    <t>rjsekarp007@gmail.com</t>
+  </si>
+  <si>
+    <t>Rajasek@007</t>
+  </si>
+  <si>
+    <t>Review Stars</t>
+  </si>
+  <si>
+    <t>Review Comments</t>
+  </si>
+  <si>
+    <t>Policy</t>
+  </si>
+  <si>
+    <t>Health Insurance</t>
+  </si>
+  <si>
+    <t>http://wallethub.com/profile/test_insurance_company/</t>
+  </si>
+  <si>
+    <t>Profile Display Name</t>
+  </si>
+  <si>
+    <t>Rajasekaran</t>
+  </si>
+  <si>
+    <t>Yes[AutoGenerate]</t>
   </si>
 </sst>
 </file>
@@ -126,7 +166,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -134,14 +174,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -425,7 +492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
@@ -564,7 +631,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -630,4 +697,108 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58065CC2-CB6D-4A8F-8338-35814EB4F34F}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63.6328125" customWidth="1"/>
+    <col min="5" max="5" width="48.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.90625" customWidth="1"/>
+    <col min="8" max="8" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.36328125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="37.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="2">
+        <v>4</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{3B64915D-FDC3-434C-B168-0E51C56ECD7C}"/>
+    <hyperlink ref="G2" r:id="rId2" xr:uid="{5B8EBDF0-802F-4A1C-8C55-CCE64D34B976}"/>
+    <hyperlink ref="F2" r:id="rId3" xr:uid="{ECE646C6-154E-4F6E-B0D6-24195B134B13}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+</worksheet>
 </file>
--- a/src/test/resources/externalTestData/QA_WalletHub_TestData.xlsx
+++ b/src/test/resources/externalTestData/QA_WalletHub_TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Wallethub\WalletHubSeleniumFramework\src\test\resources\externalTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD588666-7A82-44EC-BEC2-33286F19BADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E12008F-7BA7-4304-AF2E-5255555A202C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="39">
   <si>
     <t>Portal</t>
   </si>
@@ -135,6 +135,15 @@
   </si>
   <si>
     <t>Yes[AutoGenerate]</t>
+  </si>
+  <si>
+    <t>Message Length</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>200</t>
   </si>
 </sst>
 </file>
@@ -194,7 +203,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -208,6 +217,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -701,10 +713,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58065CC2-CB6D-4A8F-8338-35814EB4F34F}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -720,9 +732,10 @@
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.36328125" style="3" customWidth="1"/>
     <col min="11" max="11" width="37.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -756,8 +769,11 @@
       <c r="K1" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="L1" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
@@ -785,11 +801,14 @@
       <c r="I2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="2">
-        <v>4</v>
+      <c r="J2" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>35</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -800,5 +819,8 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
+  <ignoredErrors>
+    <ignoredError sqref="J2 L2" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>